--- a/biology/Zoologie/Elpistostegidae/Elpistostegidae.xlsx
+++ b/biology/Zoologie/Elpistostegidae/Elpistostegidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elpistosteginae · Elpistostegides
 Les Elpistostegidae sont une famille fossile de poissons tétrapodomorphes qui vivaient au Dévonien moyen à supérieur (du Givétien supérieur au Frasnien inférieur). La famille des Elpistostegides est aussi associée à la sous-famille Elpistosteginae.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des fossiles du crâne et une partie de l'épine dorsale du genre Elpistostege ont été découverts dans la formation géologique d'Escuminac au Québec, Canada.
-En 2013, le fossile entier d'un Elpistostege a été retrouvé dans cette même formation. Le paléontologue Richard Cloutier de l'Université du Québec à Rimouski a proposé qu’Elpistostege puisse détrôner Tiktaalik dans la position du poisson le plus proche des tétrapodes[1]. 
-La famille des Elpistostegides est définie par les affinités cladistiques établies par Swartz en 2012[2]. 
+En 2013, le fossile entier d'un Elpistostege a été retrouvé dans cette même formation. Le paléontologue Richard Cloutier de l'Université du Québec à Rimouski a proposé qu’Elpistostege puisse détrôner Tiktaalik dans la position du poisson le plus proche des tétrapodes. 
+La famille des Elpistostegides est définie par les affinités cladistiques établies par Swartz en 2012. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (30 octobre 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 octobre 2019) :
 genre Elpistostege Westall, 1938 †</t>
         </is>
       </c>
